--- a/medicine/Mort/Cimetière_Baïkov/Cimetière_Baïkov.xlsx
+++ b/medicine/Mort/Cimetière_Baïkov/Cimetière_Baïkov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Ba%C3%AFkov</t>
+          <t>Cimetière_Baïkov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Baïkov (ukrainien : Ба́йкове кла́до́ви́ще, Baïkove kladovychtche ou Ба́йковий цви́нтар, Baïkovovyï tsvyntar) est un cimetière de la ville de Kiev, en Ukraine. Il est situé dans le raïon de Holossiïv, dans le Sud de la ville. De nombreuses personnalités ukrainiennes y sont enterrées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Baïkov (ukrainien : Ба́йкове кла́до́ви́ще, Baïkove kladovychtche ou Ба́йковий цви́нтар, Baïkovovyï tsvyntar) est un cimetière de la ville de Kiev, en Ukraine. Il est situé dans le raïon de Holossiïv, dans le Sud de la ville. De nombreuses personnalités ukrainiennes y sont enterrées.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Ba%C3%AFkov</t>
+          <t>Cimetière_Baïkov</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est créé en 1833. Il tire son nom de la résidence de Baïkov toute proche. La partie la plus ancienne du cimetière se trouve au sud de la rue Baïkov, tandis que la plus grande partie du cimetière, datant des années 1880, se trouve au nord de la rue Baïkov.
 Le cimetière est partiellement entouré d'un mur et comporte une section orthodoxe, ainsi que deux sections plus petites, catholique et luthérienne.
-Sous l'Union soviétique, l'intelligentsia et les classes moyennes et aisées de Kiev se font enterrer au cimetière Baïkov. De nombreuses pierres tombales sont des œuvres d'art, parfois monumentales. Le cimetière est resté un lieu d'inhumation prestigieux après l'indépendance de l'Ukraine[2].
+Sous l'Union soviétique, l'intelligentsia et les classes moyennes et aisées de Kiev se font enterrer au cimetière Baïkov. De nombreuses pierres tombales sont des œuvres d'art, parfois monumentales. Le cimetière est resté un lieu d'inhumation prestigieux après l'indépendance de l'Ukraine.
 Une église orthodoxe de style byzantin a été construite dans le cimetière entre 1884 et 1889, l'argent provenant de la vente des emplacements. Durant la période soviétique, l'église est préservée en tant que lieu de commémoration pour les cérémonies funéraires. Elle a désormais retrouvé son statut d'église.
 En 1975, un crématorium moderne est construit dans la partie ouest du cimetière.
-En 2011, un acte de vandalisme est commis sur la tombe de la poétesse Lessia Oukraïnka[3].
+En 2011, un acte de vandalisme est commis sur la tombe de la poétesse Lessia Oukraïnka.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Ba%C3%AFkov</t>
+          <t>Cimetière_Baïkov</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nikolaï Amossov (1913-2002), médecin ukrainien.
 Oleg Antonov (1906-1984), ingénieur aéronautique soviétique.
